--- a/solution.xlsx
+++ b/solution.xlsx
@@ -2,182 +2,302 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
+  <bookViews>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+  </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.0001"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="7">
     <font>
       <name val="Arial"/>
+      <charset val="1"/>
+      <family val="0"/>
       <color rgb="FF000000"/>
       <sz val="10"/>
     </font>
     <font>
+      <name val="Arial"/>
+      <family val="0"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <family val="0"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <family val="0"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Cambria"/>
+      <charset val="1"/>
+      <family val="0"/>
       <color rgb="FF1155CC"/>
+      <sz val="11"/>
       <u val="single"/>
     </font>
     <font>
       <name val="Arial"/>
-      <color theme="1"/>
+      <charset val="1"/>
+      <family val="0"/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
     </font>
-    <font/>
+    <font>
+      <name val="Cambria"/>
+      <charset val="1"/>
+      <family val="0"/>
+      <sz val="11"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
       <patternFill/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="2" builtinId="6"/>
+    <cellStyle name="Currency" xfId="3" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Percent" xfId="5" builtinId="5"/>
   </cellStyles>
   <colors>
     <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF1155CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
     </indexedColors>
   </colors>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Sheets">
+    <a:clrScheme name="Office">
       <a:dk1>
-        <a:srgbClr val="000000"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="FFFFFF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="000000"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="FFFFFF"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4285F4"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="EA4335"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="FBBC04"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="34A853"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="FF6D01"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="46BDC6"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="1155CC"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="1155CC"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Sheets">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -189,189 +309,230 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-    <pageSetUpPr/>
+  <sheetPr filterMode="0">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="14.43" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="14.4453125" defaultRowHeight="15.75" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+    <row r="1" ht="15.75" customHeight="1" s="4">
+      <c r="A1" s="5" t="inlineStr">
         <is>
           <t>cust.id</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="6" t="inlineStr">
         <is>
           <t>Name</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="6" t="inlineStr">
         <is>
           <t>place</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D1" s="6" t="inlineStr">
         <is>
           <t>District</t>
         </is>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="E1" s="7" t="inlineStr">
+        <is>
+          <t>phone number</t>
+        </is>
+      </c>
+      <c r="F1" s="7" t="inlineStr">
+        <is>
+          <t>Total Purchase</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="15.75" customHeight="1" s="4">
+      <c r="A2" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="inlineStr">
+      <c r="B2" s="6" t="inlineStr">
         <is>
           <t>abhilash</t>
         </is>
       </c>
-      <c r="C2" s="2" t="inlineStr">
+      <c r="C2" s="6" t="inlineStr">
         <is>
           <t>kanjany</t>
         </is>
       </c>
-      <c r="D2" s="2" t="inlineStr">
+      <c r="D2" s="6" t="inlineStr">
         <is>
           <t>thrissur</t>
         </is>
@@ -379,22 +540,25 @@
       <c r="E2" t="n">
         <v>12345</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="3" t="n">
+      <c r="F2" t="n">
+        <v>5361</v>
+      </c>
+    </row>
+    <row r="3" ht="15.75" customHeight="1" s="4">
+      <c r="A3" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="inlineStr">
+      <c r="B3" s="6" t="inlineStr">
         <is>
           <t>sebastian</t>
         </is>
       </c>
-      <c r="C3" s="2" t="inlineStr">
+      <c r="C3" s="6" t="inlineStr">
         <is>
           <t>Cherthala</t>
         </is>
       </c>
-      <c r="D3" s="2" t="inlineStr">
+      <c r="D3" s="6" t="inlineStr">
         <is>
           <t>aleppy</t>
         </is>
@@ -402,22 +566,25 @@
       <c r="E3" t="n">
         <v>54321</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="3" t="n">
+      <c r="F3" t="n">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="4" ht="15.75" customHeight="1" s="4">
+      <c r="A4" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="inlineStr">
+      <c r="B4" s="6" t="inlineStr">
         <is>
           <t>Navas</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
+      <c r="C4" s="6" t="inlineStr">
         <is>
           <t>kochi</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="D4" s="6" t="inlineStr">
         <is>
           <t>eranakulam</t>
         </is>
@@ -425,180 +592,204 @@
       <c r="E4" t="n">
         <v>56789</v>
       </c>
+      <c r="F4" t="n">
+        <v>1926</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A1" r:id="rId1"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A1" display="cust.id" r:id="rId1"/>
   </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.9840277777777779" bottom="0.9840277777777779" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-    <pageSetUpPr/>
+  <sheetPr filterMode="0">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="0"/>
   </sheetPr>
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="14.43" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="14.4453125" defaultRowHeight="15.75" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+    <row r="1" ht="15.75" customHeight="1" s="4">
+      <c r="A1" s="5" t="inlineStr">
         <is>
           <t>cust.id</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="6" t="inlineStr">
         <is>
           <t>phone number</t>
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
+    <row r="2" ht="15.75" customHeight="1" s="4">
+      <c r="A2" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="n">
+      <c r="B2" s="6" t="n">
         <v>12345</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
+    <row r="3" ht="15.75" customHeight="1" s="4">
+      <c r="A3" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="n">
+      <c r="B3" s="6" t="n">
         <v>54321</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
+    <row r="4" ht="15.75" customHeight="1" s="4">
+      <c r="A4" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="n">
+      <c r="B4" s="8" t="n">
         <v>56789</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A1" r:id="rId1"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A1" display="cust.id" r:id="rId1"/>
   </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.9840277777777779" bottom="0.9840277777777779" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-    <pageSetUpPr/>
+  <sheetPr filterMode="0">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="14.43" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="14.4453125" defaultRowHeight="15.75" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="2" t="inlineStr">
+    <row r="1" ht="15.75" customHeight="1" s="4">
+      <c r="A1" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve">order id </t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="6" t="inlineStr">
         <is>
           <t>custid</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="6" t="inlineStr">
         <is>
           <t>price</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D1" s="6" t="inlineStr">
         <is>
           <t>qty</t>
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
+    <row r="2" ht="15.75" customHeight="1" s="4">
+      <c r="A2" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="n">
+      <c r="B2" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="n">
+      <c r="C2" s="6" t="n">
         <v>100</v>
       </c>
-      <c r="D2" s="2" t="n">
+      <c r="D2" s="6" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="E2" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="3" ht="15.75" customHeight="1" s="4">
+      <c r="A3" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="n">
+      <c r="B3" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="C3" s="2" t="n">
+      <c r="C3" s="6" t="n">
         <v>234</v>
       </c>
-      <c r="D3" s="2" t="n">
+      <c r="D3" s="6" t="n">
         <v>4</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="E3" t="n">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="4" ht="15.75" customHeight="1" s="4">
+      <c r="A4" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="n">
+      <c r="B4" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="C4" s="2" t="n">
+      <c r="C4" s="6" t="n">
         <v>123</v>
       </c>
-      <c r="D4" s="2" t="n">
+      <c r="D4" s="6" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
+      <c r="E4" t="n">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="5" ht="15.75" customHeight="1" s="4">
+      <c r="A5" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="n">
+      <c r="B5" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="C5" s="2" t="n">
+      <c r="C5" s="6" t="n">
         <v>321</v>
       </c>
-      <c r="D5" s="2" t="n">
+      <c r="D5" s="6" t="n">
         <v>6</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
+      <c r="E5" t="n">
+        <v>1926</v>
+      </c>
+    </row>
+    <row r="6" ht="15.75" customHeight="1" s="4">
+      <c r="A6" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="n">
+      <c r="B6" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="C6" s="2" t="n">
+      <c r="C6" s="6" t="n">
         <v>678</v>
       </c>
-      <c r="D6" s="2" t="n">
+      <c r="D6" s="6" t="n">
         <v>7</v>
       </c>
+      <c r="E6" t="n">
+        <v>4746</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.9840277777777779" bottom="0.9840277777777779" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
 </worksheet>
 </file>